--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13500"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>#</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>带有强力攻击技能</t>
+  </si>
+  <si>
+    <t>enemy1</t>
+  </si>
+  <si>
+    <t>普通小怪物</t>
   </si>
 </sst>
 </file>
@@ -76,9 +82,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -102,9 +108,30 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -116,8 +143,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,9 +161,40 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -139,70 +206,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -214,40 +252,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,25 +274,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,157 +442,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,54 +465,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -521,15 +479,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,6 +500,63 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -562,152 +568,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -716,6 +722,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1065,21 +1074,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:J6"/>
+  <dimension ref="C2:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.1296296296296" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="4" width="12.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="12.6296296296296" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.1296296296296" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.62962962962963" style="2" customWidth="1"/>
     <col min="7" max="7" width="28.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.87962962962963" style="2" customWidth="1"/>
     <col min="9" max="9" width="6.5" style="2" customWidth="1"/>
     <col min="10" max="10" width="6.75" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
@@ -1190,6 +1199,70 @@
         <v>68</v>
       </c>
     </row>
+    <row r="7" spans="3:10">
+      <c r="C7" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="3:10">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="3:10">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="3:10">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>#</t>
   </si>
@@ -37,7 +37,7 @@
     <t>位置</t>
   </si>
   <si>
-    <t>身高</t>
+    <t>速度</t>
   </si>
   <si>
     <t>体重</t>
@@ -52,7 +52,7 @@
     <t>Position</t>
   </si>
   <si>
-    <t>Height</t>
+    <t>Speed</t>
   </si>
   <si>
     <t>Weight</t>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>普通小怪物</t>
+  </si>
+  <si>
+    <t>shooter</t>
   </si>
 </sst>
 </file>
@@ -713,7 +716,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -722,9 +725,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1077,7 +1077,7 @@
   <dimension ref="C2:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -1193,75 +1193,83 @@
         <v>1</v>
       </c>
       <c r="I6" s="1">
-        <v>178</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="3:10">
-      <c r="C7" s="5">
+      <c r="C7" s="1">
         <v>1002</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="1">
         <v>2</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="1">
         <v>1</v>
       </c>
-      <c r="I7" s="5">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5">
+      <c r="I7" s="1">
+        <v>20</v>
+      </c>
+      <c r="J7" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="3:10">
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="C8" s="1">
+        <v>1003</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1">
+        <v>12</v>
+      </c>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="3:10">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="3:10">
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="3:10">
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
